--- a/Project/Test_Data.xlsx
+++ b/Project/Test_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sources\LLM_Fall2024\Lecture7\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangxijing/MasterNEU/INFO7374_AdvTechniques_LLM/Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D3CFD9A-A964-47BA-B340-7F973F3BD283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C1C57F-6EBE-DF42-80A4-3B2C76BEBE03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{9856F374-AE30-4B0A-B231-8DEB9BADA14B}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="23840" windowHeight="17180" activeTab="2" xr2:uid="{9856F374-AE30-4B0A-B231-8DEB9BADA14B}"/>
   </bookViews>
   <sheets>
     <sheet name="NewSamples" sheetId="13" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="138">
   <si>
     <t>CaseNO</t>
   </si>
@@ -821,6 +821,33 @@
   </si>
   <si>
     <t>Responses Changed from Correct to Wrong  After Fine-tuning (FineTuned Samples)</t>
+  </si>
+  <si>
+    <t>LR=0.3, BT=4, EP=5</t>
+  </si>
+  <si>
+    <t>LR=1, BT=4, EP=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2, 12, </t>
+  </si>
+  <si>
+    <t>15, 16, 17</t>
+  </si>
+  <si>
+    <t>1, 11, 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, 2, 7, 9, 17, </t>
+  </si>
+  <si>
+    <t>12, 13, 20</t>
+  </si>
+  <si>
+    <t>7, 9</t>
+  </si>
+  <si>
+    <t>5, 13, 19</t>
   </si>
 </sst>
 </file>
@@ -981,7 +1008,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1055,6 +1082,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1392,24 +1431,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99C21D67-F758-441A-8423-900BB90061A3}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
-    <col min="2" max="2" width="57.26953125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.1796875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.26953125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="44.6328125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="32.08984375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="40.453125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="35.1796875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="8.6640625" style="1"/>
+    <col min="2" max="2" width="57.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="44.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="32.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="40.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="35.1640625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="20" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="20" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -1435,7 +1474,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="125.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="125.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1453,7 +1492,7 @@
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="125.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="125.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1471,7 +1510,7 @@
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
     </row>
-    <row r="4" spans="1:8" ht="125.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="125.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1489,7 +1528,7 @@
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
     </row>
-    <row r="5" spans="1:8" ht="125.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="125.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1507,7 +1546,7 @@
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
     </row>
-    <row r="6" spans="1:8" ht="125.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="125.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1525,7 +1564,7 @@
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
     </row>
-    <row r="7" spans="1:8" ht="125.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="125.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1543,7 +1582,7 @@
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
     </row>
-    <row r="8" spans="1:8" ht="125.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="125.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1561,7 +1600,7 @@
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
     </row>
-    <row r="9" spans="1:8" ht="125.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="125.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1579,7 +1618,7 @@
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
     </row>
-    <row r="10" spans="1:8" ht="125.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="125.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -1597,7 +1636,7 @@
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="1:8" ht="125.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="125.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -1615,7 +1654,7 @@
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
     </row>
-    <row r="12" spans="1:8" ht="125.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="125.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -1633,7 +1672,7 @@
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
     </row>
-    <row r="13" spans="1:8" ht="125.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="125.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -1651,7 +1690,7 @@
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
     </row>
-    <row r="14" spans="1:8" ht="125.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="125.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -1669,7 +1708,7 @@
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
     </row>
-    <row r="15" spans="1:8" ht="125.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="125.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -1687,7 +1726,7 @@
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
     </row>
-    <row r="16" spans="1:8" ht="125.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="125.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -1705,7 +1744,7 @@
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
     </row>
-    <row r="17" spans="1:8" ht="125.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="125.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -1723,7 +1762,7 @@
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
     </row>
-    <row r="18" spans="1:8" ht="125.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="125.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -1741,7 +1780,7 @@
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
     </row>
-    <row r="19" spans="1:8" ht="125.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="125.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -1759,7 +1798,7 @@
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
     </row>
-    <row r="20" spans="1:8" ht="125.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="125.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -1777,7 +1816,7 @@
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
     </row>
-    <row r="21" spans="1:8" ht="125.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="125.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -1806,20 +1845,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
-    <col min="2" max="2" width="59.90625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.08984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="41.08984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="44.54296875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="34.81640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="42.1796875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="32.36328125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="8.6640625" style="1"/>
+    <col min="2" max="2" width="59.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="44.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="34.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="42.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="32.33203125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="22" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -1845,7 +1884,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="125.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="125.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -1863,7 +1902,7 @@
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="125.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="125.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -1881,7 +1920,7 @@
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
     </row>
-    <row r="4" spans="1:8" ht="125.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="125.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -1899,7 +1938,7 @@
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
     </row>
-    <row r="5" spans="1:8" ht="125.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="125.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -1917,7 +1956,7 @@
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
     </row>
-    <row r="6" spans="1:8" ht="125.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="125.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -1935,7 +1974,7 @@
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
     </row>
-    <row r="7" spans="1:8" ht="125.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="125.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -1953,7 +1992,7 @@
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
     </row>
-    <row r="8" spans="1:8" ht="125.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="125.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -1971,7 +2010,7 @@
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
     </row>
-    <row r="9" spans="1:8" ht="125.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="125.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -1989,7 +2028,7 @@
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
     </row>
-    <row r="10" spans="1:8" ht="125.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="125.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -2007,7 +2046,7 @@
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="1:8" ht="125.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="125.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -2025,7 +2064,7 @@
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
     </row>
-    <row r="12" spans="1:8" ht="125.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="125.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -2043,7 +2082,7 @@
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
     </row>
-    <row r="13" spans="1:8" ht="125.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="125.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -2061,7 +2100,7 @@
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
     </row>
-    <row r="14" spans="1:8" ht="125.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="125.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -2079,7 +2118,7 @@
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
     </row>
-    <row r="15" spans="1:8" ht="125.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="125.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -2097,7 +2136,7 @@
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
     </row>
-    <row r="16" spans="1:8" ht="125.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="125.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -2115,7 +2154,7 @@
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
     </row>
-    <row r="17" spans="1:8" ht="125.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="125.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14">
         <v>16</v>
       </c>
@@ -2133,7 +2172,7 @@
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
     </row>
-    <row r="18" spans="1:8" ht="125.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="125.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14">
         <v>17</v>
       </c>
@@ -2151,7 +2190,7 @@
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
     </row>
-    <row r="19" spans="1:8" ht="125.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="125.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14">
         <v>18</v>
       </c>
@@ -2169,7 +2208,7 @@
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
     </row>
-    <row r="20" spans="1:8" ht="125.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="125.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14">
         <v>19</v>
       </c>
@@ -2187,7 +2226,7 @@
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
     </row>
-    <row r="21" spans="1:8" ht="125.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="125.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14">
         <v>20</v>
       </c>
@@ -2212,23 +2251,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97EAB56B-03DA-4AF8-9C1E-65AB1652A8D8}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.54296875" customWidth="1"/>
-    <col min="2" max="2" width="32.08984375" customWidth="1"/>
-    <col min="3" max="3" width="32.36328125" customWidth="1"/>
-    <col min="4" max="5" width="36.6328125" customWidth="1"/>
-    <col min="6" max="6" width="36.7265625" customWidth="1"/>
+    <col min="1" max="1" width="27.5" customWidth="1"/>
+    <col min="2" max="2" width="32.1640625" customWidth="1"/>
+    <col min="3" max="3" width="32.33203125" customWidth="1"/>
+    <col min="4" max="6" width="36.6640625" customWidth="1"/>
     <col min="7" max="7" width="36" customWidth="1"/>
-    <col min="8" max="8" width="37.54296875" customWidth="1"/>
-    <col min="9" max="9" width="38.7265625" customWidth="1"/>
+    <col min="8" max="8" width="37.5" customWidth="1"/>
+    <col min="9" max="9" width="38.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>124</v>
       </c>
@@ -2257,16 +2297,63 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="26">
+        <v>0.3</v>
+      </c>
+      <c r="C2" s="26">
+        <v>0.35</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" s="28">
+        <v>16</v>
+      </c>
+      <c r="F2" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="G2" s="26">
+        <v>0.6</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="I2" s="28" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="26">
+        <v>0.3</v>
+      </c>
+      <c r="C3" s="26">
+        <v>0.3</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F3" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="G3" s="26">
+        <v>0.45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I3" s="27" t="s">
+        <v>137</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
